--- a/ARGs-data.xlsx
+++ b/ARGs-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.6 投稿\6.Microbiome投稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB1D94B-9736-4658-9C7C-A069FBE9B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F5F3F-3D46-44EE-8415-39D8F6D49CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,54 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="485">
   <si>
-    <t>CARD_Short_Name</t>
-  </si>
-  <si>
-    <t>InC00_1</t>
-  </si>
-  <si>
-    <t>InC00_2</t>
-  </si>
-  <si>
-    <t>InC00_3</t>
-  </si>
-  <si>
-    <t>InC02_1</t>
-  </si>
-  <si>
-    <t>InC02_2</t>
-  </si>
-  <si>
-    <t>InC02_3</t>
-  </si>
-  <si>
-    <t>InC05_1</t>
-  </si>
-  <si>
-    <t>InC05_2</t>
-  </si>
-  <si>
-    <t>InC05_3</t>
-  </si>
-  <si>
-    <t>InC08_1</t>
-  </si>
-  <si>
-    <t>InC08_2</t>
-  </si>
-  <si>
-    <t>InC08_3</t>
-  </si>
-  <si>
-    <t>InC10_1</t>
-  </si>
-  <si>
-    <t>InC10_2</t>
-  </si>
-  <si>
-    <t>InC10_3</t>
-  </si>
-  <si>
     <t>DHA-28</t>
   </si>
   <si>
@@ -1509,7 +1461,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Absolute abundance of ARGs</t>
+    <t>InC01_1</t>
+  </si>
+  <si>
+    <t>InC01_2</t>
+  </si>
+  <si>
+    <t>InC01_3</t>
+  </si>
+  <si>
+    <t>InC03_1</t>
+  </si>
+  <si>
+    <t>InC03_2</t>
+  </si>
+  <si>
+    <t>InC03_3</t>
+  </si>
+  <si>
+    <t>InC06_1</t>
+  </si>
+  <si>
+    <t>InC06_2</t>
+  </si>
+  <si>
+    <t>InC06_3</t>
+  </si>
+  <si>
+    <t>InC09_1</t>
+  </si>
+  <si>
+    <t>InC09_2</t>
+  </si>
+  <si>
+    <t>InC09_3</t>
+  </si>
+  <si>
+    <t>InC12_1</t>
+  </si>
+  <si>
+    <t>InC12_2</t>
+  </si>
+  <si>
+    <t>InC12_3</t>
+  </si>
+  <si>
+    <t>ARG_subtype_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absolute abundance of ARG subtypes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,18 +1559,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1586,23 +1581,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1887,7 +1896,7 @@
   <dimension ref="A1:P251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1896,78 +1905,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
+      <c r="A2" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>60.526315789999998</v>
@@ -2017,7 +2026,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>85.820895519999993</v>
@@ -2067,7 +2076,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>56.384742950000003</v>
@@ -2117,7 +2126,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>43.26923077</v>
@@ -2167,7 +2176,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>830.28083030000005</v>
@@ -2217,7 +2226,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2267,7 +2276,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>898.73463030000005</v>
@@ -2317,7 +2326,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>310.54906579999999</v>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>14.81481481</v>
@@ -2417,7 +2426,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>123.776184</v>
@@ -2467,7 +2476,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>613.50210970000001</v>
@@ -2517,7 +2526,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>1174.9623120000001</v>
@@ -2567,7 +2576,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>1439.360968</v>
@@ -2617,7 +2626,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>752.73870910000005</v>
@@ -2667,7 +2676,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>1039.4775239999999</v>
@@ -2717,7 +2726,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>991.13197700000001</v>
@@ -2767,7 +2776,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>41.748957570000002</v>
@@ -2817,7 +2826,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2867,7 +2876,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>162.1258397</v>
@@ -2917,7 +2926,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2967,7 +2976,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>16.393442619999998</v>
@@ -3017,7 +3026,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>661.66166169999997</v>
@@ -3067,7 +3076,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -3117,7 +3126,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>1358.465608</v>
@@ -3167,7 +3176,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>15.503875969999999</v>
@@ -3217,7 +3226,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>126.0775862</v>
@@ -3267,7 +3276,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>603.4482759</v>
@@ -3317,7 +3326,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>55.198598130000001</v>
@@ -3367,7 +3376,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>54.263565890000002</v>
@@ -3417,7 +3426,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>978.26301360000002</v>
@@ -3467,7 +3476,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -3517,7 +3526,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>29.151377480000001</v>
@@ -3567,7 +3576,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>854.59183670000004</v>
@@ -3617,7 +3626,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -3667,7 +3676,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>851.03244840000002</v>
@@ -3717,7 +3726,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>1.6625103910000001</v>
@@ -3767,7 +3776,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>1.836547291</v>
@@ -3817,7 +3826,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
         <v>303.62535700000001</v>
@@ -3867,7 +3876,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>671.56862750000005</v>
@@ -3917,7 +3926,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -3967,7 +3976,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>300.4166874</v>
@@ -4017,7 +4026,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>317.72855140000001</v>
@@ -4067,7 +4076,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -4117,7 +4126,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>65.306122450000004</v>
@@ -4167,7 +4176,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>65.125481010000001</v>
@@ -4217,7 +4226,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -4267,7 +4276,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
         <v>210.33478890000001</v>
@@ -4317,7 +4326,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>229.41970309999999</v>
@@ -4367,7 +4376,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -4417,7 +4426,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>154.20560750000001</v>
@@ -4467,7 +4476,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
         <v>240.50769159999999</v>
@@ -4517,7 +4526,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -4567,7 +4576,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>191.54737560000001</v>
@@ -4617,7 +4626,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -4667,7 +4676,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>145.33965240000001</v>
@@ -4717,7 +4726,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>41.847826089999998</v>
@@ -4767,7 +4776,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>154.57685660000001</v>
@@ -4817,7 +4826,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
         <v>138.68613139999999</v>
@@ -4867,7 +4876,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>144.37984499999999</v>
@@ -4917,7 +4926,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>146.68615980000001</v>
@@ -4967,7 +4976,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>36.734693880000002</v>
@@ -5017,7 +5026,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
         <v>172.74939169999999</v>
@@ -5067,7 +5076,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
         <v>124.8285322</v>
@@ -5117,7 +5126,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
         <v>165.80310879999999</v>
@@ -5167,7 +5176,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>160.4938272</v>
@@ -5217,7 +5226,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
         <v>174.2160279</v>
@@ -5267,7 +5276,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -5317,7 +5326,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
         <v>152.42881070000001</v>
@@ -5367,7 +5376,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>49.056603770000002</v>
@@ -5417,7 +5426,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1">
         <v>140.3081914</v>
@@ -5467,7 +5476,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>109.693815</v>
@@ -5517,7 +5526,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1">
         <v>170.37037040000001</v>
@@ -5567,7 +5576,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1">
         <v>154.83870970000001</v>
@@ -5617,7 +5626,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
         <v>41.189711000000003</v>
@@ -5667,7 +5676,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
         <v>128.2539683</v>
@@ -5717,7 +5726,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>146.63256609999999</v>
@@ -5767,7 +5776,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
         <v>111.76088369999999</v>
@@ -5817,7 +5826,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
         <v>79.096045200000006</v>
@@ -5867,7 +5876,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1">
         <v>126.54320989999999</v>
@@ -5917,7 +5926,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
         <v>124.9197174</v>
@@ -5967,7 +5976,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -6017,7 +6026,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1">
         <v>100.0571755</v>
@@ -6067,7 +6076,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1">
         <v>134.2592593</v>
@@ -6117,7 +6126,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -6167,7 +6176,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1">
         <v>117.3965937</v>
@@ -6217,7 +6226,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1">
         <v>119.0873678</v>
@@ -6267,7 +6276,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1">
         <v>94.112163050000007</v>
@@ -6317,7 +6326,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1">
         <v>110.83540120000001</v>
@@ -6367,7 +6376,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -6417,7 +6426,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1">
         <v>123.68024130000001</v>
@@ -6467,7 +6476,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1">
         <v>90.968161140000007</v>
@@ -6517,7 +6526,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -6567,7 +6576,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
         <v>92.2677063</v>
@@ -6617,7 +6626,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
         <v>96.512570969999999</v>
@@ -6667,7 +6676,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
         <v>110.174059</v>
@@ -6717,7 +6726,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1">
         <v>91.065292099999994</v>
@@ -6767,7 +6776,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1">
         <v>58.823529409999999</v>
@@ -6817,7 +6826,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B100" s="1">
         <v>100.8130081</v>
@@ -6867,7 +6876,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1">
         <v>86.98830409</v>
@@ -6917,7 +6926,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B102" s="1">
         <v>96.866096870000007</v>
@@ -6967,7 +6976,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1">
         <v>110.6500692</v>
@@ -7017,7 +7026,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1">
         <v>90.464547679999995</v>
@@ -7067,7 +7076,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1">
         <v>155.29411759999999</v>
@@ -7117,7 +7126,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B106" s="1">
         <v>88.541666669999998</v>
@@ -7167,7 +7176,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B107" s="1">
         <v>120.94395280000001</v>
@@ -7217,7 +7226,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B108" s="1">
         <v>31.657355679999998</v>
@@ -7267,7 +7276,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -7317,7 +7326,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B110" s="1">
         <v>14.01869159</v>
@@ -7367,7 +7376,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1">
         <v>14.95726496</v>
@@ -7417,7 +7426,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B112" s="1">
         <v>1.4005602239999999</v>
@@ -7467,7 +7476,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -7517,7 +7526,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B114" s="1">
         <v>1.0416666670000001</v>
@@ -7567,7 +7576,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -7617,7 +7626,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -7667,7 +7676,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B117" s="1">
         <v>47.986289630000002</v>
@@ -7717,7 +7726,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1">
         <v>62.068965519999999</v>
@@ -7767,7 +7776,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1">
         <v>67.632850239999996</v>
@@ -7817,7 +7826,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B120" s="1">
         <v>52.57323255</v>
@@ -7867,7 +7876,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1">
         <v>101.38248849999999</v>
@@ -7917,7 +7926,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1">
         <v>34.728233320000001</v>
@@ -7967,7 +7976,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1">
         <v>28.151311499999998</v>
@@ -8017,7 +8026,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -8067,7 +8076,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B125" s="1">
         <v>37.037037040000001</v>
@@ -8117,7 +8126,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -8167,7 +8176,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B127" s="1">
         <v>18.379281540000001</v>
@@ -8217,7 +8226,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -8267,7 +8276,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -8317,7 +8326,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1">
         <v>34.188034190000003</v>
@@ -8367,7 +8376,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -8417,7 +8426,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B132" s="1">
         <v>25.646605059999999</v>
@@ -8467,7 +8476,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1">
         <v>39.886039889999999</v>
@@ -8517,7 +8526,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -8567,7 +8576,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B135" s="1">
         <v>4.5045045049999999</v>
@@ -8617,7 +8626,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B136" s="1">
         <v>12.59445844</v>
@@ -8667,7 +8676,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B137" s="1">
         <v>36.630036629999999</v>
@@ -8717,7 +8726,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -8767,7 +8776,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -8817,7 +8826,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1">
         <v>1.5151515149999999</v>
@@ -8867,7 +8876,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -8917,7 +8926,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -8967,7 +8976,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -9017,7 +9026,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -9067,7 +9076,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -9117,7 +9126,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1">
         <v>3.4188034190000001</v>
@@ -9167,7 +9176,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -9217,7 +9226,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1">
         <v>31.898820130000001</v>
@@ -9267,7 +9276,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1">
         <v>0.77790742899999998</v>
@@ -9317,7 +9326,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1">
         <v>23.006181219999998</v>
@@ -9367,7 +9376,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B151" s="1">
         <v>2.1715526600000001</v>
@@ -9417,7 +9426,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -9467,7 +9476,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1">
         <v>3.6496350359999998</v>
@@ -9517,7 +9526,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B154" s="1">
         <v>23.809523810000002</v>
@@ -9567,7 +9576,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -9617,7 +9626,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1">
         <v>2.3391812870000002</v>
@@ -9667,7 +9676,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B157" s="1">
         <v>1.388888889</v>
@@ -9717,7 +9726,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B158" s="1">
         <v>16.666666670000001</v>
@@ -9767,7 +9776,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -9817,7 +9826,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1">
         <v>2.2296544040000001</v>
@@ -9867,7 +9876,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1">
         <v>27.121609800000002</v>
@@ -9917,7 +9926,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1">
         <v>3.3250207810000001</v>
@@ -9967,7 +9976,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -10017,7 +10026,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -10067,7 +10076,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -10117,7 +10126,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1">
         <v>10.41666667</v>
@@ -10167,7 +10176,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1">
         <v>5.6497175139999998</v>
@@ -10217,7 +10226,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -10267,7 +10276,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B169" s="1">
         <v>6.9651741290000002</v>
@@ -10317,7 +10326,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -10367,7 +10376,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -10417,7 +10426,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -10467,7 +10476,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -10517,7 +10526,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -10567,7 +10576,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B175" s="1">
         <v>2.4420024420000002</v>
@@ -10617,7 +10626,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -10667,7 +10676,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B177" s="1">
         <v>5.5096418729999996</v>
@@ -10717,7 +10726,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -10767,7 +10776,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -10817,7 +10826,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -10867,7 +10876,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B181" s="1">
         <v>1.904761905</v>
@@ -10917,7 +10926,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -10967,7 +10976,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -11017,7 +11026,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B184" s="1">
         <v>3.6084799279999999</v>
@@ -11067,7 +11076,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B185" s="1">
         <v>6.4290504930000001</v>
@@ -11117,7 +11126,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
@@ -11167,7 +11176,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B187" s="1">
         <v>12.626262629999999</v>
@@ -11217,7 +11226,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -11267,7 +11276,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1">
         <v>2.4968789010000001</v>
@@ -11317,7 +11326,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -11367,7 +11376,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B191" s="1">
         <v>9.2592592590000002</v>
@@ -11417,7 +11426,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -11467,7 +11476,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B193" s="1">
         <v>1.953125</v>
@@ -11517,7 +11526,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1">
         <v>1.4367816090000001</v>
@@ -11567,7 +11576,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -11617,7 +11626,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B196" s="1">
         <v>12.658227849999999</v>
@@ -11667,7 +11676,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B197" s="1">
         <v>0</v>
@@ -11717,7 +11726,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1">
         <v>0</v>
@@ -11767,7 +11776,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1">
         <v>7.183908046</v>
@@ -11817,7 +11826,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B200" s="1">
         <v>2.424242424</v>
@@ -11867,7 +11876,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1">
         <v>15.70680628</v>
@@ -11917,7 +11926,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1">
         <v>15.458937199999999</v>
@@ -11967,7 +11976,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -12017,7 +12026,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B204" s="1">
         <v>12.398664760000001</v>
@@ -12067,7 +12076,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B205" s="1">
         <v>0</v>
@@ -12117,7 +12126,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B206" s="1">
         <v>0</v>
@@ -12167,7 +12176,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B207" s="1">
         <v>0</v>
@@ -12217,7 +12226,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B208" s="1">
         <v>0</v>
@@ -12267,7 +12276,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B209" s="1">
         <v>1.8416206260000001</v>
@@ -12317,7 +12326,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B210" s="1">
         <v>0</v>
@@ -12367,7 +12376,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -12417,7 +12426,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -12467,7 +12476,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B213" s="1">
         <v>0</v>
@@ -12517,7 +12526,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1">
         <v>0</v>
@@ -12567,7 +12576,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B215" s="1">
         <v>0</v>
@@ -12617,7 +12626,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B216" s="1">
         <v>0</v>
@@ -12667,7 +12676,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B217" s="1">
         <v>0</v>
@@ -12717,7 +12726,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B218" s="1">
         <v>1.107419712</v>
@@ -12767,7 +12776,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B219" s="1">
         <v>0</v>
@@ -12817,7 +12826,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B220" s="1">
         <v>1.862197393</v>
@@ -12867,7 +12876,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B221" s="1">
         <v>0</v>
@@ -12917,7 +12926,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B222" s="1">
         <v>0</v>
@@ -12967,7 +12976,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B223" s="1">
         <v>0</v>
@@ -13017,7 +13026,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B224" s="1">
         <v>0</v>
@@ -13067,7 +13076,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B225" s="1">
         <v>8.7719298250000008</v>
@@ -13117,7 +13126,7 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B226" s="1">
         <v>0</v>
@@ -13167,7 +13176,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B227" s="1">
         <v>0</v>
@@ -13217,7 +13226,7 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B228" s="1">
         <v>0</v>
@@ -13267,7 +13276,7 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B229" s="1">
         <v>0</v>
@@ -13317,7 +13326,7 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B230" s="1">
         <v>0</v>
@@ -13367,7 +13376,7 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B231" s="1">
         <v>0</v>
@@ -13417,7 +13426,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -13467,7 +13476,7 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -13517,7 +13526,7 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
@@ -13567,7 +13576,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -13617,7 +13626,7 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B236" s="1">
         <v>1.949317739</v>
@@ -13667,7 +13676,7 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B237" s="1">
         <v>0</v>
@@ -13717,7 +13726,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B238" s="1">
         <v>0</v>
@@ -13767,7 +13776,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B239" s="1">
         <v>0</v>
@@ -13817,7 +13826,7 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B240" s="1">
         <v>0</v>
@@ -13867,7 +13876,7 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B241" s="1">
         <v>0</v>
@@ -13917,7 +13926,7 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1">
         <v>0</v>
@@ -13967,7 +13976,7 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B243" s="1">
         <v>0</v>
@@ -14017,7 +14026,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B244" s="1">
         <v>0</v>
@@ -14067,7 +14076,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B245" s="1">
         <v>0</v>
@@ -14117,7 +14126,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B246" s="1">
         <v>0</v>
@@ -14167,7 +14176,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B247" s="1">
         <v>0</v>
@@ -14217,7 +14226,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B248" s="1">
         <v>0</v>
@@ -14267,7 +14276,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B249" s="1">
         <v>0</v>
@@ -14317,7 +14326,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B250" s="1">
         <v>0</v>
@@ -14366,52 +14375,52 @@
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B251" s="1">
-        <v>0</v>
-      </c>
-      <c r="C251" s="1">
-        <v>0</v>
-      </c>
-      <c r="D251" s="1">
-        <v>0</v>
-      </c>
-      <c r="E251" s="1">
-        <v>0</v>
-      </c>
-      <c r="F251" s="1">
-        <v>0</v>
-      </c>
-      <c r="G251" s="1">
-        <v>0</v>
-      </c>
-      <c r="H251" s="1">
-        <v>0</v>
-      </c>
-      <c r="I251" s="1">
-        <v>0</v>
-      </c>
-      <c r="J251" s="1">
-        <v>0</v>
-      </c>
-      <c r="K251" s="1">
-        <v>0</v>
-      </c>
-      <c r="L251" s="1">
-        <v>0</v>
-      </c>
-      <c r="M251" s="1">
+      <c r="A251" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+      <c r="C251" s="4">
+        <v>0</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0</v>
+      </c>
+      <c r="E251" s="4">
+        <v>0</v>
+      </c>
+      <c r="F251" s="4">
+        <v>0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0</v>
+      </c>
+      <c r="H251" s="4">
+        <v>0</v>
+      </c>
+      <c r="I251" s="4">
+        <v>0</v>
+      </c>
+      <c r="J251" s="4">
+        <v>0</v>
+      </c>
+      <c r="K251" s="4">
+        <v>0</v>
+      </c>
+      <c r="L251" s="4">
+        <v>0</v>
+      </c>
+      <c r="M251" s="4">
         <v>0.647249191</v>
       </c>
-      <c r="N251" s="1">
-        <v>0</v>
-      </c>
-      <c r="O251" s="1">
-        <v>0</v>
-      </c>
-      <c r="P251" s="1">
+      <c r="N251" s="4">
+        <v>0</v>
+      </c>
+      <c r="O251" s="4">
+        <v>0</v>
+      </c>
+      <c r="P251" s="4">
         <v>0</v>
       </c>
     </row>
@@ -14428,8 +14437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FF5F38-FA79-4A45-BA7B-C718A1F4C653}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14439,113 +14448,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>15</v>
+      <c r="G2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1">
         <v>91.065292099999994</v>
@@ -14595,22 +14604,22 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1">
         <v>92.2677063</v>
@@ -14660,22 +14669,22 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1">
         <v>170.37037040000001</v>
@@ -14725,22 +14734,22 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>56.384742950000003</v>
@@ -14790,22 +14799,22 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1">
         <v>854.59183670000004</v>
@@ -14855,22 +14864,22 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1">
         <v>1.6625103910000001</v>
@@ -14920,22 +14929,22 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1">
         <v>18.379281540000001</v>
@@ -14985,22 +14994,22 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>162.1258397</v>
@@ -15050,22 +15059,22 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <v>41.748957570000002</v>
@@ -15115,22 +15124,22 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G12" s="1">
         <v>1.0416666670000001</v>
@@ -15180,22 +15189,22 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
         <v>154.20560750000001</v>
@@ -15245,22 +15254,22 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1">
         <v>29.151377480000001</v>
@@ -15310,22 +15319,22 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
         <v>43.26923077</v>
@@ -15375,22 +15384,22 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1">
         <v>90.464547679999995</v>
@@ -15440,22 +15449,22 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1">
         <v>4.5045045049999999</v>
@@ -15505,22 +15514,22 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G18" s="1">
         <v>1.5151515149999999</v>
@@ -15570,22 +15579,22 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1">
         <v>1358.465608</v>
@@ -15635,22 +15644,22 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1">
         <v>1.4005602239999999</v>
@@ -15700,22 +15709,22 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
         <v>1174.9623120000001</v>
@@ -15765,22 +15774,22 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1">
         <v>36.630036629999999</v>
@@ -15830,22 +15839,22 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1">
         <v>138.68613139999999</v>
@@ -15895,22 +15904,22 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1">
         <v>172.74939169999999</v>
@@ -15960,22 +15969,22 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G25" s="1">
         <v>58.823529409999999</v>
@@ -16025,22 +16034,22 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1">
         <v>117.3965937</v>
@@ -16090,22 +16099,22 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1">
         <v>27.121609800000002</v>
@@ -16155,22 +16164,22 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1">
         <v>41.189711000000003</v>
@@ -16220,22 +16229,22 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1">
         <v>100.0571755</v>
@@ -16285,22 +16294,22 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1">
         <v>110.6500692</v>
@@ -16350,22 +16359,22 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1">
         <v>96.866096870000007</v>
@@ -16415,22 +16424,22 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1">
         <v>210.33478890000001</v>
@@ -16480,22 +16489,22 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1">
         <v>109.693815</v>
@@ -16545,22 +16554,22 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1">
         <v>25.646605059999999</v>
@@ -16610,22 +16619,22 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G35" s="1">
         <v>12.59445844</v>
@@ -16675,22 +16684,22 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G36" s="1">
         <v>3.6084799279999999</v>
@@ -16740,22 +16749,22 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1">
         <v>126.54320989999999</v>
@@ -16805,22 +16814,22 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G38" s="1">
         <v>88.541666669999998</v>
@@ -16870,22 +16879,22 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G39" s="1">
         <v>23.006181219999998</v>
@@ -16935,22 +16944,22 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G40" s="1">
         <v>123.68024130000001</v>
@@ -17000,22 +17009,22 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G41" s="1">
         <v>165.80310879999999</v>
@@ -17065,22 +17074,22 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1">
         <v>300.4166874</v>
@@ -17130,22 +17139,22 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G43" s="1">
         <v>128.2539683</v>
@@ -17195,22 +17204,22 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G44" s="1">
         <v>152.42881070000001</v>
@@ -17260,22 +17269,22 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G45" s="1">
         <v>62.068965519999999</v>
@@ -17325,22 +17334,22 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G46" s="1">
         <v>154.83870970000001</v>
@@ -17390,22 +17399,22 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G47" s="1">
         <v>52.57323255</v>
@@ -17455,22 +17464,22 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G48" s="1">
         <v>34.728233320000001</v>
@@ -17520,22 +17529,22 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1">
         <v>140.3081914</v>
@@ -17585,22 +17594,22 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G50" s="1">
         <v>144.37984499999999</v>
@@ -17650,22 +17659,22 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G51" s="1">
         <v>146.68615980000001</v>
@@ -17715,22 +17724,22 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G52" s="1">
         <v>191.54737560000001</v>
@@ -17780,22 +17789,22 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G53" s="1">
         <v>96.512570969999999</v>
@@ -17845,22 +17854,22 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G54" s="1">
         <v>145.33965240000001</v>
@@ -17910,22 +17919,22 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1">
         <v>174.2160279</v>
@@ -17975,22 +17984,22 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G56" s="1">
         <v>154.57685660000001</v>
@@ -18040,22 +18049,22 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G57" s="1">
         <v>303.62535700000001</v>
@@ -18105,22 +18114,22 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G58" s="1">
         <v>100.8130081</v>
@@ -18170,27 +18179,27 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G59" s="1">
+        <v>256</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="5">
         <v>119.0873678</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="5">
         <v>113.8007791</v>
       </c>
       <c r="I59" s="1">
@@ -18235,27 +18244,27 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="1">
+        <v>268</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="5">
         <v>1039.4775239999999</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="5">
         <v>1099.167015</v>
       </c>
       <c r="I60" s="1">
@@ -18300,27 +18309,27 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="1">
+        <v>371</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="5">
         <v>240.50769159999999</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="5">
         <v>267.74094220000001</v>
       </c>
       <c r="I61" s="1">
@@ -18365,27 +18374,27 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="1">
+        <v>376</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="5">
         <v>752.73870910000005</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="5">
         <v>555.72647870000003</v>
       </c>
       <c r="I62" s="1">
@@ -18430,27 +18439,27 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="1">
+        <v>376</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5">
         <v>1439.360968</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="5">
         <v>1052.437993</v>
       </c>
       <c r="I63" s="1">
@@ -18495,27 +18504,27 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="1">
+        <v>273</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="5">
         <v>160.4938272</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="5">
         <v>158.7301587</v>
       </c>
       <c r="I64" s="1">
@@ -18560,27 +18569,27 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="1">
+        <v>273</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5">
         <v>14.81481481</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="5">
         <v>29.62962963</v>
       </c>
       <c r="I65" s="1">
@@ -18625,27 +18634,27 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="1">
+        <v>273</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
         <v>60.526315789999998</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="5">
         <v>39.473684210000002</v>
       </c>
       <c r="I66" s="1">
@@ -18690,27 +18699,27 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="1">
+        <v>290</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="5">
         <v>15.503875969999999</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="5">
         <v>7.7519379839999996</v>
       </c>
       <c r="I67" s="1">
@@ -18755,27 +18764,27 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="1">
+        <v>290</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="5">
         <v>55.198598130000001</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="5">
         <v>25.250681459999999</v>
       </c>
       <c r="I68" s="1">
@@ -18820,22 +18829,22 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G69" s="1">
         <v>65.306122450000004</v>
@@ -18885,22 +18894,22 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G70" s="1">
         <v>36.734693880000002</v>
@@ -18950,22 +18959,22 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G71" s="1">
         <v>16.393442619999998</v>
@@ -19015,22 +19024,22 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G72" s="1">
         <v>229.41970309999999</v>
@@ -19080,22 +19089,22 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -19145,22 +19154,22 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G74" s="1">
         <v>67.632850239999996</v>
@@ -19210,22 +19219,22 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G75" s="1">
         <v>317.72855140000001</v>
@@ -19275,22 +19284,22 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <v>85.820895519999993</v>
@@ -19340,22 +19349,22 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G77" s="1">
         <v>6.9651741290000002</v>
@@ -19405,22 +19414,22 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G78" s="1">
         <v>613.50210970000001</v>
@@ -19470,22 +19479,22 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G79" s="1">
         <v>2.2296544040000001</v>
@@ -19535,22 +19544,22 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -19600,22 +19609,22 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G81" s="1">
         <v>5.6497175139999998</v>
@@ -19665,22 +19674,22 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G82" s="1">
         <v>146.63256609999999</v>
@@ -19730,22 +19739,22 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G83" s="1">
         <v>111.76088369999999</v>
@@ -19795,22 +19804,22 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G84" s="1">
         <v>79.096045200000006</v>
@@ -19860,22 +19869,22 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G85" s="1">
         <v>110.83540120000001</v>
@@ -19925,22 +19934,22 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G86" s="1">
         <v>310.54906579999999</v>
@@ -19990,22 +19999,22 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G87" s="1">
         <v>123.776184</v>
@@ -20055,22 +20064,22 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G88" s="1">
         <v>898.73463030000005</v>
@@ -20120,22 +20129,22 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G89" s="1">
         <v>41.847826089999998</v>
@@ -20185,22 +20194,22 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G90" s="1">
         <v>65.125481010000001</v>
@@ -20250,22 +20259,22 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G91" s="1">
         <v>14.95726496</v>
@@ -20315,22 +20324,22 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G92" s="1">
         <v>54.263565890000002</v>
@@ -20380,22 +20389,22 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G93" s="1">
         <v>124.9197174</v>
@@ -20445,22 +20454,22 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G94" s="1">
         <v>830.28083030000005</v>
@@ -20510,22 +20519,22 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
@@ -20575,22 +20584,22 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G96" s="1">
         <v>126.0775862</v>
@@ -20640,22 +20649,22 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -20705,22 +20714,22 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G98" s="1">
         <v>661.66166169999997</v>
@@ -20770,22 +20779,22 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G99" s="1">
         <v>49.056603770000002</v>
@@ -20835,22 +20844,22 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G100" s="1">
         <v>991.13197700000001</v>
@@ -20900,22 +20909,22 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G101" s="1">
         <v>120.94395280000001</v>
@@ -20965,22 +20974,22 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G102" s="1">
         <v>86.98830409</v>
@@ -21030,22 +21039,22 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G103" s="1">
         <v>94.112163050000007</v>
@@ -21094,67 +21103,67 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G104" s="1">
+      <c r="A104" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" s="4">
         <v>90.968161140000007</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="4">
         <v>112.4106563</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="4">
         <v>74.074074069999995</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="4">
         <v>22.742040289999998</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K104" s="4">
         <v>0.64977258000000004</v>
       </c>
-      <c r="L104" s="1">
+      <c r="L104" s="4">
         <v>37.037037040000001</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104" s="4">
         <v>11.371020140000001</v>
       </c>
-      <c r="N104" s="1">
+      <c r="N104" s="4">
         <v>3.5737491879999999</v>
       </c>
-      <c r="O104" s="1">
+      <c r="O104" s="4">
         <v>23.716699160000001</v>
       </c>
-      <c r="P104" s="1">
+      <c r="P104" s="4">
         <v>7.7972709550000001</v>
       </c>
-      <c r="Q104" s="1">
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="4">
         <v>0.97465886899999998</v>
       </c>
-      <c r="S104" s="1">
+      <c r="S104" s="4">
         <v>4.8732943469999999</v>
       </c>
-      <c r="T104" s="1">
+      <c r="T104" s="4">
         <v>9.4217024039999995</v>
       </c>
-      <c r="U104" s="1">
+      <c r="U104" s="4">
         <v>9.4217024039999995</v>
       </c>
     </row>
